--- a/ig/ch-lab-report/StructureDefinition-ch-lab-report-device-test-kit.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-report-device-test-kit.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T14:56:25+01:00</t>
+    <t>2023-12-28T12:16:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1531,17 +1531,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.6015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.56640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="26.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="25.5625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1550,24 +1550,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="42.08203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.5546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.90625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="61.40234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="58.1796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-report-device-test-kit.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-report-device-test-kit.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB Device: TestKit</t>
+    <t>CH LAB-Report Device: TestKit</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:40:37+00:00</t>
+    <t>2024-12-18T08:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Holds Laboratory Test-Kit Data</t>
+    <t>Holds Laboratory Test-Kit Data.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -513,7 +513,7 @@
     <t>Unique device identifier (UDI) assigned to device label or package.  Note that the Device may include multiple udiCarriers as it either may include just the udiCarrier for the jurisdiction it is sold, or for multiple jurisdictions it could have been sold.</t>
   </si>
   <si>
-    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
+    <t>UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](http://hl7.org/fhir/R4/device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
   </si>
   <si>
     <t>.id and .code</t>
@@ -924,7 +924,6 @@
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
     &lt;code value="303607000"/&gt;
-    &lt;display value="Biomedical equipment (physical object)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2825,7 +2824,7 @@
         <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>78</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-report-device-test-kit.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-report-device-test-kit.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1538,17 +1538,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.6015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="26.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="23.12890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1557,25 +1557,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="42.08203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.4921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="40.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="61.40234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="52.640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="230.36328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-report-device-test-kit.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-report-device-test-kit.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -361,7 +361,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -490,7 +490,7 @@
     <t>Device.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DeviceDefinition)
+    <t xml:space="preserve">Reference(DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -745,7 +745,7 @@
     <t>The availability status reason of the device.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Device.distinctIdentifier</t>
@@ -934,7 +934,7 @@
     <t>Codes to identify medical devices.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+    <t>http://hl7.org/fhir/ValueSet/device-type|4.0.1</t>
   </si>
   <si>
     <t>Device.specialization</t>
@@ -1070,7 +1070,7 @@
     <t>Device.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(Patient|4.0.1)
 </t>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
     <t>Device.owner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1130,7 +1130,7 @@
     <t>Device.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
     <t>Device.parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="23.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="27.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1563,7 +1563,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="36.078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="40.71484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.49609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -2914,7 +2914,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>155</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>214</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>236</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>259</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>371</v>
       </c>
@@ -8967,12 +8967,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM67">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
